--- a/ep/ep/export/flourish/Romania_party_name.xlsx
+++ b/ep/ep/export/flourish/Romania_party_name.xlsx
@@ -88,7 +88,7 @@
     <t>PSD</t>
   </si>
   <si>
-    <t>UDMR</t>
+    <t>RMDSZ</t>
   </si>
   <si>
     <t>UNPR</t>
